--- a/public/excel/Program_Excel.xlsx
+++ b/public/excel/Program_Excel.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Program</t>
   </si>
   <si>
     <t>Campus</t>
+  </si>
+  <si>
+    <t>ProgramId</t>
   </si>
 </sst>
 </file>
@@ -350,24 +353,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/Program_Excel.xlsx
+++ b/public/excel/Program_Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\openelective\open_elective\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\OpenElectiveNew\OpenElective\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -356,7 +356,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,7 +378,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"MPSTME(MUM),MPSTME(SHIR)"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/excel/Program_Excel.xlsx
+++ b/public/excel/Program_Excel.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +379,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"MPSTME(MUM),MPSTME(SHIR)"</formula1>
+      <formula1>"MPSTME(MUMBAI),MPSTME(SHIR)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/excel/Program_Excel.xlsx
+++ b/public/excel/Program_Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Program</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>ProgramId</t>
+  </si>
+  <si>
+    <t>MPSTME(SHIR)</t>
   </si>
 </sst>
 </file>
@@ -353,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,10 +379,15 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"MPSTME(MUMBAI),MPSTME(SHIR)"</formula1>
+      <formula1>"MPSTME (MUMBAI),MPSTME (SHIR)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
